--- a/mbs-perturbation/bloated/svm/smote/bloated-svm-default-results.xlsx
+++ b/mbs-perturbation/bloated/svm/smote/bloated-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5325</v>
+        <v>0.615819209039548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9638009049773756</v>
+        <v>0.9864253393665159</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6859903381642513</v>
+        <v>0.7582608695652174</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5663479453737639</v>
+        <v>0.6908130464159211</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.653250773993808</v>
+        <v>0.9173913043478261</v>
       </c>
       <c r="C3" t="n">
         <v>0.9590909090909091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7771639042357275</v>
+        <v>0.9377777777777777</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6797408473879062</v>
+        <v>0.9884204031262855</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7463414634146341</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6954545454545454</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72</v>
+        <v>0.9773755656108598</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8568284656519951</v>
+        <v>0.9963800904977376</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9532710280373832</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9140271493212669</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9379310344827586</v>
+        <v>0.9550827423167849</v>
       </c>
       <c r="E5" t="n">
-        <v>0.982620320855615</v>
+        <v>0.9988070752776635</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9932885906040269</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.669683257918552</v>
+        <v>0.9366515837104072</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.9672897196261683</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9956396544631839</v>
+        <v>0.9883381324557795</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7757303712099703</v>
+        <v>0.9012366972720696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8422213081036611</v>
+        <v>0.9556026326614562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7842170553765474</v>
+        <v>0.9191573349793616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8162354467464927</v>
+        <v>0.9325517495546775</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/smote/bloated-svm-default-results.xlsx
+++ b/mbs-perturbation/bloated/svm/smote/bloated-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.615819209039548</v>
+        <v>0.5964391691394659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9864253393665159</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7582608695652174</v>
+        <v>0.7472118959107807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6908130464159211</v>
+        <v>0.7052671963565258</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9173913043478261</v>
+        <v>0.8986175115207373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9590909090909091</v>
+        <v>0.9701492537313433</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9377777777777777</v>
+        <v>0.9330143540669856</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9884204031262855</v>
+        <v>0.9945050865077597</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9653465346534653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9818181818181818</v>
+        <v>0.9701492537313433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9773755656108598</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9963800904977376</v>
+        <v>0.9964357317888172</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9140271493212669</v>
+        <v>0.98</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9550827423167849</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9988070752776635</v>
+        <v>0.9993034825870647</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9366515837104072</v>
+        <v>0.9800995024875622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9672897196261683</v>
+        <v>0.9874686716791979</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9883381324557795</v>
+        <v>0.9996766169154228</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9012366972720696</v>
+        <v>0.8910705420526327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9556026326614562</v>
+        <v>0.9800796019900497</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9191573349793616</v>
+        <v>0.9250671694079651</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9325517495546775</v>
+        <v>0.9390376228311179</v>
       </c>
     </row>
   </sheetData>
